--- a/output.xlsx
+++ b/output.xlsx
@@ -3671,7 +3671,7 @@
         <v>9.799999999999999</v>
       </c>
       <c r="V2" t="n">
-        <v>9.98658</v>
+        <v>8.280000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3741,7 +3741,7 @@
         <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>6.190110000000002</v>
+        <v>5.490000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -3811,7 +3811,7 @@
         <v>7</v>
       </c>
       <c r="V4" t="n">
-        <v>5.3955</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="5">
@@ -3881,7 +3881,7 @@
         <v>3.5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.32435</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>3.727800000000001</v>
+        <v>3.420000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -4021,7 +4021,7 @@
         <v>7</v>
       </c>
       <c r="V7" t="n">
-        <v>6.376500000000001</v>
+        <v>5.220000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -4091,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>2.7468</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="9">
@@ -4161,7 +4161,7 @@
         <v>5.6</v>
       </c>
       <c r="V9" t="n">
-        <v>1.33416</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="10">
@@ -4231,7 +4231,7 @@
         <v>5.6</v>
       </c>
       <c r="V10" t="n">
-        <v>1.72656</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="11">
@@ -4301,7 +4301,7 @@
         <v>0.7</v>
       </c>
       <c r="V11" t="n">
-        <v>0.65727</v>
+        <v>0.5399999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -4371,7 +4371,7 @@
         <v>4.199999999999999</v>
       </c>
       <c r="V12" t="n">
-        <v>2.27592</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="13">
@@ -4441,7 +4441,7 @@
         <v>9.1</v>
       </c>
       <c r="V13" t="n">
-        <v>4.91481</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="14">
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.3734</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="15">
@@ -4581,7 +4581,7 @@
         <v>6.3</v>
       </c>
       <c r="V15" t="n">
-        <v>1.50093</v>
+        <v>0.8099999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -4651,7 +4651,7 @@
         <v>4.199999999999999</v>
       </c>
       <c r="V16" t="n">
-        <v>1.00062</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="17">
@@ -4721,7 +4721,7 @@
         <v>7.699999999999999</v>
       </c>
       <c r="V17" t="n">
-        <v>3.40407</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="18">
@@ -4791,7 +4791,7 @@
         <v>3.5</v>
       </c>
       <c r="V18" t="n">
-        <v>2.69775</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="19">
@@ -4861,7 +4861,7 @@
         <v>4.899999999999999</v>
       </c>
       <c r="V19" t="n">
-        <v>1.16739</v>
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>
